--- a/figs/performance_metrics.xlsx
+++ b/figs/performance_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Projetos\projecao_demanda_eletrica\figs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B781FF8E-FAFC-4DE1-BF06-8D186730103B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA071462-B8EB-4C8A-9266-A4CCF6EA3C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="570" windowWidth="18255" windowHeight="13995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="1050" windowWidth="18255" windowHeight="13995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,22 +128,22 @@
     <t>TBATS</t>
   </si>
   <si>
-    <t>LightGBM univ. - direto</t>
-  </si>
-  <si>
-    <t>LightGBM univ. - recursivo</t>
-  </si>
-  <si>
-    <t>XGBoost univ. - direto</t>
-  </si>
-  <si>
-    <t>XGBoost univ. - recursivo</t>
-  </si>
-  <si>
     <t>Ensemble</t>
   </si>
   <si>
     <t>sMAPE</t>
+  </si>
+  <si>
+    <t>LightGBM univ. (direto)</t>
+  </si>
+  <si>
+    <t>XGBoost univ. (direto)</t>
+  </si>
+  <si>
+    <t>LightGBM univ. (recursivo)</t>
+  </si>
+  <si>
+    <t>XGBoost univ. (recursivo)</t>
   </si>
 </sst>
 </file>
@@ -250,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -285,10 +285,16 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,15 +1028,16 @@
   <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
@@ -1050,7 +1057,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>26</v>
@@ -1072,7 +1079,7 @@
       <c r="F3" s="5">
         <v>6.1969000000000003E-2</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="13">
         <v>6.5738000000000005E-2</v>
       </c>
       <c r="H3" s="6">
@@ -1081,21 +1088,21 @@
     </row>
     <row r="4" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="12">
+        <v>34</v>
+      </c>
+      <c r="C4" s="11">
         <v>193.21750399999999</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>73986.021319000007</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>272.003716</v>
       </c>
       <c r="F4" s="10">
         <v>1.6029999999999999E-2</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="14">
         <v>1.6275000000000001E-2</v>
       </c>
       <c r="H4" s="7">
@@ -1118,7 +1125,7 @@
       <c r="F5" s="5">
         <v>3.5019000000000002E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="14">
         <v>3.5965999999999998E-2</v>
       </c>
       <c r="H5" s="7">
@@ -1141,7 +1148,7 @@
       <c r="F6" s="5">
         <v>3.0654000000000001E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="14">
         <v>3.1157000000000001E-2</v>
       </c>
       <c r="H6" s="7">
@@ -1150,7 +1157,7 @@
     </row>
     <row r="7" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" s="11">
         <v>595.94081300000005</v>
@@ -1164,7 +1171,7 @@
       <c r="F7" s="5">
         <v>5.1952999999999999E-2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="14">
         <v>5.3721999999999999E-2</v>
       </c>
       <c r="H7" s="7">
@@ -1173,7 +1180,7 @@
     </row>
     <row r="8" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C8" s="11">
         <v>522.41512499999999</v>
@@ -1187,7 +1194,7 @@
       <c r="F8" s="5">
         <v>4.6269999999999999E-2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="14">
         <v>4.7551999999999997E-2</v>
       </c>
       <c r="H8" s="7">
@@ -1210,7 +1217,7 @@
       <c r="F9" s="5">
         <v>2.496E-2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="14">
         <v>2.4556000000000001E-2</v>
       </c>
       <c r="H9" s="7">
@@ -1233,7 +1240,7 @@
       <c r="F10" s="5">
         <v>5.1887999999999997E-2</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="14">
         <v>5.3573000000000003E-2</v>
       </c>
       <c r="H10" s="7">
@@ -1256,7 +1263,7 @@
       <c r="F11" s="5">
         <v>6.7701999999999998E-2</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="14">
         <v>7.0747000000000004E-2</v>
       </c>
       <c r="H11" s="7">
@@ -1279,7 +1286,7 @@
       <c r="F12" s="5">
         <v>4.4283999999999997E-2</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="14">
         <v>4.5546999999999997E-2</v>
       </c>
       <c r="H12" s="7">
@@ -1288,7 +1295,7 @@
     </row>
     <row r="13" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="11">
         <v>682.63870299999996</v>
@@ -1302,7 +1309,7 @@
       <c r="F13" s="5">
         <v>5.9020000000000003E-2</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="14">
         <v>6.1466E-2</v>
       </c>
       <c r="H13" s="7">
@@ -1311,21 +1318,21 @@
     </row>
     <row r="14" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="13">
+        <v>39</v>
+      </c>
+      <c r="C14" s="12">
         <v>474.40880299999998</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>278864.65594700002</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>528.07637299999999</v>
       </c>
       <c r="F14" s="8">
         <v>4.1577999999999997E-2</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="15">
         <v>4.2664000000000001E-2</v>
       </c>
       <c r="H14" s="9">
